--- a/templates/Untokenized Credit Cards.xlsx
+++ b/templates/Untokenized Credit Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -33,8 +33,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-          </rPr>
-          <t>A two digit expiration month, e.g. 09</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A two digit expiration month, e.g. 09</t>
         </r>
       </text>
     </comment>
@@ -45,8 +46,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-          </rPr>
-          <t>A four digit expiration year, e.g. 2020</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A four digit expiration year, e.g. 2020</t>
         </r>
       </text>
     </comment>
@@ -57,8 +59,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-          </rPr>
-          <t>The card number, without any spaces or other characters.</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The card number, without any spaces or other characters.</t>
         </r>
       </text>
     </comment>
@@ -69,8 +72,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-          </rPr>
-          <t>The name on the card (e.g. Simon Westlake)</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The name on the card (e.g. Simon Westlake)</t>
         </r>
       </text>
     </comment>
@@ -81,8 +85,35 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-          </rPr>
-          <t>1 if this card should be in auto mode. 0 if it should not.</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 if this card should be in auto mode. 0 if it should not.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Must be a supported Sonar subdivision. This is a two character code in the US and Canada (e.g. WI, AB, NY)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Two character ISO country code (E.g. US, CA, GB)</t>
         </r>
       </text>
     </comment>
@@ -91,24 +122,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Account ID</t>
-  </si>
-  <si>
-    <t>Expiration Month</t>
-  </si>
-  <si>
-    <t>Expiration Year</t>
-  </si>
-  <si>
-    <t>Card Number</t>
-  </si>
-  <si>
-    <t>Name on card</t>
-  </si>
-  <si>
-    <t>Auto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Account ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiration Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiration Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name on card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
   </si>
 </sst>
 </file>
@@ -116,13 +162,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,13 +189,14 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,19 +339,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
+      <xdr:colOff>742320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="30240" y="0"/>
-          <a:ext cx="5589000" cy="5345280"/>
+          <a:ext cx="5512680" cy="5344920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -315,28 +363,80 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" spc="-1">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>This import can be used to insert raw (untokenized) credit card data into Sonar. Be mindful of security and your PCI compliance obligations if using this import!</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" spc="-1">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Grey columns are required, blue columns are optional.</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -358,7 +458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -377,20 +477,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,11 +514,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/templates/Untokenized Credit Cards.xlsx
+++ b/templates/Untokenized Credit Cards.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -117,12 +117,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The CVC code is the 3 or 4 digit code on the back of a credit card. If your payment processor does not require the CVC for tokenization, this can be excluded. If they require it, it must be included.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Account ID</t>
   </si>
@@ -155,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVC</t>
   </si>
 </sst>
 </file>
@@ -188,6 +204,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
@@ -199,7 +216,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +227,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E8AC7"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,12 +270,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,7 +309,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5E8AC7"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -339,9 +366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>742320</xdr:colOff>
+      <xdr:colOff>741960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -351,7 +378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="30240" y="0"/>
-          <a:ext cx="5512680" cy="5344920"/>
+          <a:ext cx="5512320" cy="5344560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -372,69 +399,50 @@
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>This import can be used to insert raw (untokenized) credit card data into Sonar. Be mindful of security and your PCI compliance obligations if using this import!</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Grey columns are required, blue columns are optional.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -452,18 +460,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -477,22 +485,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,11 +537,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
